--- a/team_folder/newFolder/Project Management/Project Management.xlsx
+++ b/team_folder/newFolder/Project Management/Project Management.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\soet-students.main.ad.rit.edu\Courses\CPET-563\groups\newFolder\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\soet-students\courses\CPET-563\groups\newFolder\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6984" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="6990" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="5" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
   <si>
     <t>Andrei</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Design VHDL\AXI block for sonic sensors</t>
   </si>
   <si>
-    <t>Create AXI on Vivado</t>
-  </si>
-  <si>
     <t>Write VHDL for sonic sensors</t>
   </si>
   <si>
@@ -137,9 +134,6 @@
     <t>Write code to read sonic sensors</t>
   </si>
   <si>
-    <t>Code up sonic sensors calibration</t>
-  </si>
-  <si>
     <t>Hardware</t>
   </si>
   <si>
@@ -161,15 +155,9 @@
     <t>Andrei &amp; Cody</t>
   </si>
   <si>
-    <t>Andrei &amp; Bach</t>
-  </si>
-  <si>
     <t>Derive Requirements for Ultrasonic Sensors</t>
   </si>
   <si>
-    <t>Derive Requirements for LED</t>
-  </si>
-  <si>
     <t>Derive Requirements for IMU</t>
   </si>
   <si>
@@ -188,13 +176,7 @@
     <t>PWM?</t>
   </si>
   <si>
-    <t>C - Polling &amp; Interrupts</t>
-  </si>
-  <si>
     <t>Team &amp; Bach</t>
-  </si>
-  <si>
-    <t>Bach &amp; Team</t>
   </si>
   <si>
     <t>April</t>
@@ -314,36 +296,15 @@
     <t>Plan function names for the drivers</t>
   </si>
   <si>
-    <t>Python - Encoders &amp; PWM</t>
-  </si>
-  <si>
     <t>VHDL - PWM (Duty Cycle)</t>
   </si>
   <si>
-    <t>Create functional test*</t>
-  </si>
-  <si>
-    <t>Python - TBD</t>
-  </si>
-  <si>
-    <t>Develop Tech Memo*</t>
-  </si>
-  <si>
-    <t>Define Technical Deliverables*</t>
-  </si>
-  <si>
     <t>Register Mapping</t>
   </si>
   <si>
     <t>Sensor Trade Study* (choice of sensors)</t>
   </si>
   <si>
-    <t>VHDL - Ultrasonic Sensors</t>
-  </si>
-  <si>
-    <t>Derive Requirements for Audio Speaker*</t>
-  </si>
-  <si>
     <t>Derive Requirements for Cameras</t>
   </si>
   <si>
@@ -354,13 +315,106 @@
   </si>
   <si>
     <t>Design block for sonic sensors</t>
+  </si>
+  <si>
+    <t>Think of purpose &amp; application</t>
+  </si>
+  <si>
+    <t>Bach &amp; Zack</t>
+  </si>
+  <si>
+    <t>Create GUI</t>
+  </si>
+  <si>
+    <t>Implement Calibration process</t>
+  </si>
+  <si>
+    <t>Cody &amp; Andrei</t>
+  </si>
+  <si>
+    <t>CDR</t>
+  </si>
+  <si>
+    <t>Create sound board*</t>
+  </si>
+  <si>
+    <t>Design functional test*</t>
+  </si>
+  <si>
+    <t>Python - Encoders</t>
+  </si>
+  <si>
+    <t>VHDL &amp; C - Interrupts</t>
+  </si>
+  <si>
+    <t>Peter &amp; Brandon</t>
+  </si>
+  <si>
+    <t>Create functional test</t>
+  </si>
+  <si>
+    <t>After We Finish</t>
+  </si>
+  <si>
+    <t>Create functional Unit tests</t>
+  </si>
+  <si>
+    <t>Motors</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>GUI mapping</t>
+  </si>
+  <si>
+    <t>Create PWM AXI on Vivado</t>
+  </si>
+  <si>
+    <t>Create Ultrasonic sensor AXI on Vivado</t>
+  </si>
+  <si>
+    <t>Create movement functions</t>
+  </si>
+  <si>
+    <t>create camera feed</t>
+  </si>
+  <si>
+    <t>create unknown map</t>
+  </si>
+  <si>
+    <t>Unit Test for writing to memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ultra sonic sensors</t>
+  </si>
+  <si>
+    <t>Calibration</t>
+  </si>
+  <si>
+    <t>Develop Tech Memo</t>
+  </si>
+  <si>
+    <t>Zack</t>
+  </si>
+  <si>
+    <t>Brandon, Peter &amp; Zack</t>
+  </si>
+  <si>
+    <t>Bach &amp; Cody</t>
+  </si>
+  <si>
+    <t>Bach &amp; B &amp; P</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -489,6 +543,42 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1" tint="0.24994659260841701"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
@@ -700,7 +790,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -735,18 +825,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
@@ -798,14 +879,11 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
@@ -860,6 +938,42 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="22">
@@ -886,7 +1000,7 @@
     <cellStyle name="Project Headers" xfId="9"/>
     <cellStyle name="Title 2" xfId="21"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="73">
     <dxf>
       <fill>
         <patternFill>
@@ -1794,34 +1908,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -1833,102 +1919,8 @@
           <color theme="9" tint="-0.24994659260841701"/>
         </right>
         <bottom style="thin">
-          <color theme="9" tint="0.59996337778862885"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="lightUp">
-          <fgColor theme="7"/>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <bottom style="thin">
           <color theme="7"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color theme="7"/>
-        </top>
         <vertical/>
         <horizontal/>
       </border>
@@ -2394,363 +2386,353 @@
     <tabColor theme="7"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:BP69"/>
+  <dimension ref="B1:BP84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.44140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" style="2" customWidth="1"/>
-    <col min="10" max="28" width="3.109375" style="2"/>
-    <col min="29" max="16384" width="3.109375" style="1"/>
+    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" style="2" customWidth="1"/>
+    <col min="10" max="28" width="3.140625" style="2"/>
+    <col min="29" max="16384" width="3.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="54.6" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="B1" s="31" t="s">
-        <v>80</v>
-      </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-    </row>
-    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="44">
+    <row r="1" spans="2:68" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+    </row>
+    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="40">
         <f ca="1">NOW()</f>
-        <v>43173.895303935184</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="I2" s="28">
+        <v>43179.77702627315</v>
+      </c>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="25">
         <f ca="1">DAY(NOW())</f>
+        <v>20</v>
+      </c>
+      <c r="K2" s="24"/>
+      <c r="L2" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="S2" s="49"/>
+      <c r="T2" s="49"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC2" s="36"/>
+      <c r="AD2" s="36"/>
+      <c r="AE2" s="36"/>
+      <c r="AF2" s="36"/>
+      <c r="AG2" s="36"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+    </row>
+    <row r="3" spans="2:68" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AN3" s="16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="14">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+      <c r="K4" s="14">
+        <v>3</v>
+      </c>
+      <c r="L4" s="14">
+        <v>4</v>
+      </c>
+      <c r="M4" s="14">
+        <v>5</v>
+      </c>
+      <c r="N4" s="14">
+        <v>6</v>
+      </c>
+      <c r="O4" s="14">
+        <v>7</v>
+      </c>
+      <c r="P4" s="14">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>9</v>
+      </c>
+      <c r="R4" s="14">
+        <v>10</v>
+      </c>
+      <c r="S4" s="14">
+        <v>11</v>
+      </c>
+      <c r="T4" s="14">
+        <v>12</v>
+      </c>
+      <c r="U4" s="14">
+        <v>13</v>
+      </c>
+      <c r="V4" s="14">
         <v>14</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="25"/>
-      <c r="W2" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="X2" s="37"/>
-      <c r="Y2" s="37"/>
-      <c r="Z2" s="38"/>
-      <c r="AA2" s="24"/>
-      <c r="AB2" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="41"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="AK2" s="37"/>
-      <c r="AL2" s="37"/>
-      <c r="AM2" s="37"/>
-      <c r="AN2" s="37"/>
-      <c r="AO2" s="37"/>
-      <c r="AP2" s="37"/>
-      <c r="AQ2" s="37"/>
-    </row>
-    <row r="3" spans="2:68" s="18" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="42" t="s">
+      <c r="W4" s="14">
+        <v>15</v>
+      </c>
+      <c r="X4" s="14">
+        <v>16</v>
+      </c>
+      <c r="Y4" s="14">
+        <v>17</v>
+      </c>
+      <c r="Z4" s="14">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="14">
+        <v>19</v>
+      </c>
+      <c r="AB4" s="14">
+        <v>20</v>
+      </c>
+      <c r="AC4" s="14">
+        <v>21</v>
+      </c>
+      <c r="AD4" s="14">
+        <v>22</v>
+      </c>
+      <c r="AE4" s="14">
+        <v>23</v>
+      </c>
+      <c r="AF4" s="14">
+        <v>24</v>
+      </c>
+      <c r="AG4" s="14">
+        <v>25</v>
+      </c>
+      <c r="AH4" s="14">
+        <v>26</v>
+      </c>
+      <c r="AI4" s="14">
+        <v>27</v>
+      </c>
+      <c r="AJ4" s="14">
+        <v>28</v>
+      </c>
+      <c r="AK4" s="14">
+        <v>29</v>
+      </c>
+      <c r="AL4" s="14">
+        <v>30</v>
+      </c>
+      <c r="AM4" s="14">
+        <v>31</v>
+      </c>
+      <c r="AN4" s="14">
+        <v>32</v>
+      </c>
+      <c r="AO4" s="14">
+        <v>33</v>
+      </c>
+      <c r="AP4" s="14">
+        <v>34</v>
+      </c>
+      <c r="AQ4" s="14">
+        <v>35</v>
+      </c>
+      <c r="AR4" s="14">
+        <v>36</v>
+      </c>
+      <c r="AS4" s="14">
+        <v>37</v>
+      </c>
+      <c r="AT4" s="14">
+        <v>38</v>
+      </c>
+      <c r="AU4" s="14">
+        <v>39</v>
+      </c>
+      <c r="AV4" s="14">
+        <v>40</v>
+      </c>
+      <c r="AW4" s="14">
+        <v>41</v>
+      </c>
+      <c r="AX4" s="14">
+        <v>42</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>43</v>
+      </c>
+      <c r="AZ4" s="14">
+        <v>44</v>
+      </c>
+      <c r="BA4" s="14">
+        <v>45</v>
+      </c>
+      <c r="BB4" s="14">
+        <v>46</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>47</v>
+      </c>
+      <c r="BD4" s="14">
+        <v>48</v>
+      </c>
+      <c r="BE4" s="14">
+        <v>49</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>50</v>
+      </c>
+      <c r="BG4" s="14">
+        <v>51</v>
+      </c>
+      <c r="BH4" s="14">
+        <v>52</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>53</v>
+      </c>
+      <c r="BJ4" s="14">
+        <v>54</v>
+      </c>
+      <c r="BK4" s="14">
+        <v>55</v>
+      </c>
+      <c r="BL4" s="14">
+        <v>56</v>
+      </c>
+      <c r="BM4" s="14">
+        <v>57</v>
+      </c>
+      <c r="BN4" s="14">
+        <v>58</v>
+      </c>
+      <c r="BO4" s="14">
+        <v>59</v>
+      </c>
+      <c r="BP4" s="14">
         <v>60</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
-      <c r="AB3" s="20"/>
-      <c r="AN3" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="46"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="17">
-        <v>1</v>
-      </c>
-      <c r="J4" s="17">
-        <v>2</v>
-      </c>
-      <c r="K4" s="17">
-        <v>3</v>
-      </c>
-      <c r="L4" s="17">
-        <v>4</v>
-      </c>
-      <c r="M4" s="17">
-        <v>5</v>
-      </c>
-      <c r="N4" s="17">
-        <v>6</v>
-      </c>
-      <c r="O4" s="17">
-        <v>7</v>
-      </c>
-      <c r="P4" s="17">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="17">
-        <v>9</v>
-      </c>
-      <c r="R4" s="17">
-        <v>10</v>
-      </c>
-      <c r="S4" s="17">
-        <v>11</v>
-      </c>
-      <c r="T4" s="17">
-        <v>12</v>
-      </c>
-      <c r="U4" s="17">
-        <v>13</v>
-      </c>
-      <c r="V4" s="17">
-        <v>14</v>
-      </c>
-      <c r="W4" s="17">
-        <v>15</v>
-      </c>
-      <c r="X4" s="17">
-        <v>16</v>
-      </c>
-      <c r="Y4" s="17">
-        <v>17</v>
-      </c>
-      <c r="Z4" s="17">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="17">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="17">
-        <v>20</v>
-      </c>
-      <c r="AC4" s="17">
-        <v>21</v>
-      </c>
-      <c r="AD4" s="17">
-        <v>22</v>
-      </c>
-      <c r="AE4" s="17">
-        <v>23</v>
-      </c>
-      <c r="AF4" s="17">
-        <v>24</v>
-      </c>
-      <c r="AG4" s="17">
-        <v>25</v>
-      </c>
-      <c r="AH4" s="17">
-        <v>26</v>
-      </c>
-      <c r="AI4" s="17">
-        <v>27</v>
-      </c>
-      <c r="AJ4" s="17">
-        <v>28</v>
-      </c>
-      <c r="AK4" s="17">
-        <v>29</v>
-      </c>
-      <c r="AL4" s="17">
-        <v>30</v>
-      </c>
-      <c r="AM4" s="17">
-        <v>31</v>
-      </c>
-      <c r="AN4" s="17">
-        <v>32</v>
-      </c>
-      <c r="AO4" s="17">
+    </row>
+    <row r="5" spans="2:68" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AP4" s="17">
+      <c r="C5" s="58"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="AQ4" s="17">
-        <v>35</v>
-      </c>
-      <c r="AR4" s="17">
-        <v>36</v>
-      </c>
-      <c r="AS4" s="17">
-        <v>37</v>
-      </c>
-      <c r="AT4" s="17">
-        <v>38</v>
-      </c>
-      <c r="AU4" s="17">
-        <v>39</v>
-      </c>
-      <c r="AV4" s="17">
-        <v>40</v>
-      </c>
-      <c r="AW4" s="17">
-        <v>41</v>
-      </c>
-      <c r="AX4" s="17">
-        <v>42</v>
-      </c>
-      <c r="AY4" s="17">
-        <v>43</v>
-      </c>
-      <c r="AZ4" s="17">
-        <v>44</v>
-      </c>
-      <c r="BA4" s="17">
-        <v>45</v>
-      </c>
-      <c r="BB4" s="17">
-        <v>46</v>
-      </c>
-      <c r="BC4" s="17">
-        <v>47</v>
-      </c>
-      <c r="BD4" s="17">
-        <v>48</v>
-      </c>
-      <c r="BE4" s="17">
-        <v>49</v>
-      </c>
-      <c r="BF4" s="17">
-        <v>50</v>
-      </c>
-      <c r="BG4" s="17">
-        <v>51</v>
-      </c>
-      <c r="BH4" s="17">
-        <v>52</v>
-      </c>
-      <c r="BI4" s="17">
-        <v>53</v>
-      </c>
-      <c r="BJ4" s="17">
-        <v>54</v>
-      </c>
-      <c r="BK4" s="17">
-        <v>55</v>
-      </c>
-      <c r="BL4" s="17">
-        <v>56</v>
-      </c>
-      <c r="BM4" s="17">
-        <v>57</v>
-      </c>
-      <c r="BN4" s="17">
-        <v>58</v>
-      </c>
-      <c r="BO4" s="17">
-        <v>59</v>
-      </c>
-      <c r="BP4" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="2:68" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-      <c r="E5" s="7">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="59" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="7">
@@ -2763,17 +2745,17 @@
         <v>1</v>
       </c>
       <c r="G6" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="56" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="7">
@@ -2783,21 +2765,21 @@
         <v>8</v>
       </c>
       <c r="F7" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>6</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -2812,14 +2794,14 @@
         <v>0</v>
       </c>
       <c r="H8" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="56" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="7">
@@ -2829,21 +2811,21 @@
         <v>13</v>
       </c>
       <c r="F9" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G9" s="7">
         <v>0</v>
       </c>
       <c r="H9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="56" t="s">
+        <v>46</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2852,20 +2834,20 @@
         <v>6</v>
       </c>
       <c r="F10" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C11" s="56"/>
       <c r="D11" s="7">
         <v>13</v>
       </c>
@@ -2873,20 +2855,22 @@
         <v>5</v>
       </c>
       <c r="F11" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="56" t="s">
+        <v>80</v>
+      </c>
       <c r="D12" s="7">
         <v>13</v>
       </c>
@@ -2894,20 +2878,20 @@
         <v>5</v>
       </c>
       <c r="F12" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="56" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="7">
@@ -2916,163 +2900,172 @@
       <c r="E13" s="7">
         <v>5</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="F13" s="7">
+        <v>13</v>
+      </c>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="56" t="s">
+        <v>80</v>
+      </c>
       <c r="D14" s="7">
         <v>13</v>
       </c>
       <c r="E14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F14" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="7">
-        <v>13</v>
-      </c>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="U15" s="35"/>
-    </row>
-    <row r="16" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:68" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="58"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="56" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E16" s="7">
         <v>6</v>
       </c>
       <c r="F16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E17" s="7">
         <v>6</v>
       </c>
       <c r="F17" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G17" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>41</v>
+      </c>
       <c r="D18" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E18" s="7">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>0</v>
+      <c r="G18" s="7">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E19" s="7">
+        <v>8</v>
+      </c>
+      <c r="F19" s="7">
         <v>6</v>
       </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
       <c r="G19" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C20" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="D20" s="7">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
         <v>8</v>
       </c>
-      <c r="E20" s="7">
-        <v>13</v>
-      </c>
       <c r="F20" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G20" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B21" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="12"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="56" t="s">
+        <v>41</v>
+      </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
@@ -3089,58 +3082,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="7">
-        <v>6</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>45</v>
+    <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="56" t="s">
+        <v>43</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F23" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G23" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H23" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
+      </c>
+      <c r="C24" s="56" t="s">
+        <v>42</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
@@ -3149,122 +3130,124 @@
         <v>8</v>
       </c>
       <c r="F24" s="7">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>7</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1</v>
+      </c>
+      <c r="E25" s="7">
         <v>6</v>
       </c>
-      <c r="G24" s="7">
+      <c r="F25" s="7">
+        <v>1</v>
+      </c>
+      <c r="G25" s="7">
+        <v>3</v>
+      </c>
+      <c r="H25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1</v>
+      </c>
+      <c r="E26" s="7">
+        <v>8</v>
+      </c>
+      <c r="F26" s="7">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>3</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>6</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>6</v>
+      </c>
+      <c r="F28" s="7">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
         <v>2</v>
       </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1</v>
-      </c>
-      <c r="E25" s="7">
-        <v>8</v>
-      </c>
-      <c r="F25" s="7">
-        <v>6</v>
-      </c>
-      <c r="G25" s="7">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1</v>
-      </c>
-      <c r="E27" s="7">
-        <v>8</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B28" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="7">
-        <v>1</v>
-      </c>
-      <c r="E28" s="7">
-        <v>8</v>
-      </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
       <c r="H28" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1</v>
-      </c>
-      <c r="E29" s="7">
-        <v>8</v>
-      </c>
-      <c r="F29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="7">
-        <v>3</v>
-      </c>
-      <c r="H29" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="58"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6"/>
+    </row>
+    <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="C30" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -3282,796 +3265,967 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>46</v>
+    <row r="31" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>41</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
       </c>
       <c r="E31" s="7">
+        <v>8</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7">
         <v>6</v>
       </c>
-      <c r="F31" s="7">
-        <v>1</v>
-      </c>
-      <c r="G31" s="7">
-        <v>3</v>
-      </c>
-      <c r="H31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>6</v>
+      </c>
+      <c r="H32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6"/>
+    </row>
+    <row r="34" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>3</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="C34" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="D34" s="7">
         <v>1</v>
       </c>
       <c r="E34" s="7">
+        <v>8</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>4</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="F34" s="7">
-        <v>1</v>
-      </c>
-      <c r="G34" s="7">
-        <v>2</v>
-      </c>
-      <c r="H34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B35" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="12"/>
       <c r="D35" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E35" s="7">
         <v>8</v>
       </c>
       <c r="F35" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>45</v>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="56" t="s">
+        <v>6</v>
       </c>
       <c r="D36" s="7">
         <v>1</v>
       </c>
       <c r="E36" s="7">
+        <v>6</v>
+      </c>
+      <c r="F36" s="7">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>4</v>
+      </c>
+      <c r="H36" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="7">
         <v>8</v>
       </c>
-      <c r="F36" s="7">
-        <v>0</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
       <c r="E37" s="7">
+        <v>6</v>
+      </c>
+      <c r="F37" s="7">
+        <v>14</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
         <v>8</v>
       </c>
-      <c r="F37" s="7">
-        <v>0</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
-      <c r="E38" s="7">
+      <c r="F38" s="7">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>10</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B39" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6"/>
+    </row>
+    <row r="40" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="7">
+        <v>1</v>
+      </c>
+      <c r="E40" s="7">
         <v>6</v>
       </c>
-      <c r="F38" s="7">
-        <v>1</v>
-      </c>
-      <c r="G38" s="7">
+      <c r="F40" s="7">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
         <v>6</v>
       </c>
-      <c r="H38" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B39" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
-      <c r="E39" s="7">
-        <v>8</v>
-      </c>
-      <c r="F39" s="7">
-        <v>0</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
-      <c r="E40" s="7">
-        <v>8</v>
-      </c>
-      <c r="F40" s="7">
-        <v>0</v>
-      </c>
-      <c r="G40" s="7">
+      <c r="H40" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="7">
+        <v>12</v>
+      </c>
+      <c r="E41" s="7">
+        <v>7</v>
+      </c>
+      <c r="F41" s="7">
+        <v>14</v>
+      </c>
+      <c r="G41" s="7">
         <v>4</v>
       </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="7">
-        <v>6</v>
-      </c>
-      <c r="E41" s="7">
-        <v>8</v>
-      </c>
-      <c r="F41" s="7">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0</v>
-      </c>
       <c r="H41" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>0</v>
       </c>
       <c r="D42" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E42" s="7">
         <v>8</v>
       </c>
       <c r="F42" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H42" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="2" t="s">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D43" s="7">
+        <v>8</v>
+      </c>
+      <c r="E43" s="7">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7">
+        <v>10</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="7">
+        <v>4</v>
+      </c>
+      <c r="E44" s="7">
+        <v>14</v>
+      </c>
+      <c r="F44" s="7">
         <v>6</v>
       </c>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7">
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="7">
+        <v>18</v>
+      </c>
+      <c r="E45" s="7">
+        <v>5</v>
+      </c>
+      <c r="F45" s="7">
+        <v>20</v>
+      </c>
+      <c r="G45" s="7">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B46" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="7">
+        <v>22</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7">
+        <v>22</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="60"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="56"/>
+      <c r="D48" s="7">
+        <v>23</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0</v>
+      </c>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="7">
+        <v>23</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0</v>
+      </c>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C50" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="7">
+        <v>23</v>
+      </c>
+      <c r="E50" s="7">
+        <v>1</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D51" s="7">
+        <v>23</v>
+      </c>
+      <c r="E51" s="7">
+        <v>2</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B52" s="51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7">
-        <v>4</v>
-      </c>
-      <c r="H43" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6"/>
+    </row>
+    <row r="53" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B53" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E44" s="7">
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6"/>
+    </row>
+    <row r="54" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B54" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6"/>
+    </row>
+    <row r="55" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B55" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="6"/>
+    </row>
+    <row r="56" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B56" s="50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C56" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="6"/>
+    </row>
+    <row r="57" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B57" s="50" t="s">
+        <v>93</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6"/>
+    </row>
+    <row r="58" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B58" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="6"/>
+    </row>
+    <row r="59" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B59" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F44" s="7">
-        <v>0</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0</v>
-      </c>
-      <c r="H44" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="7">
-        <v>8</v>
-      </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="6"/>
-    </row>
-    <row r="46" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
-        <v>8</v>
-      </c>
-      <c r="F46" s="7">
-        <v>1</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0</v>
-      </c>
-      <c r="H46" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B47" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="C59" s="60"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6"/>
+    </row>
+    <row r="60" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="7">
+        <v>25</v>
+      </c>
+      <c r="E60" s="7">
+        <v>0</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0</v>
+      </c>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
+      <c r="H60" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="7">
+        <v>25</v>
+      </c>
+      <c r="E61" s="7">
+        <v>0</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0</v>
+      </c>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
+      <c r="H61" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="7">
+        <v>25</v>
+      </c>
+      <c r="E62" s="7">
+        <v>0</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
+      <c r="H62" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="7">
-        <v>0</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0</v>
-      </c>
-      <c r="H47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
-      <c r="E48" s="7">
-        <v>6</v>
-      </c>
-      <c r="F48" s="7">
-        <v>1</v>
-      </c>
-      <c r="G48" s="7">
-        <v>6</v>
-      </c>
-      <c r="H48" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D49" s="7">
-        <v>1</v>
-      </c>
-      <c r="E49" s="7">
-        <v>8</v>
-      </c>
-      <c r="F49" s="7">
-        <v>1</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D50" s="7">
-        <v>8</v>
-      </c>
-      <c r="E50" s="7">
-        <v>2</v>
-      </c>
-      <c r="F50" s="7">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0</v>
-      </c>
-      <c r="H50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" s="7">
-        <v>4</v>
-      </c>
-      <c r="E51" s="7">
-        <v>14</v>
-      </c>
-      <c r="F51" s="7">
-        <v>6</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0</v>
-      </c>
-      <c r="H51" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="C63" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="7">
+      <c r="D63" s="7">
+        <v>25</v>
+      </c>
+      <c r="E63" s="7">
+        <v>0</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0</v>
+      </c>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
+      <c r="H63" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="7">
+        <v>25</v>
+      </c>
+      <c r="E64" s="7">
+        <v>0</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0</v>
+      </c>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
+      <c r="H64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="7">
-        <v>0</v>
-      </c>
-      <c r="G52" s="7">
-        <v>0</v>
-      </c>
-      <c r="H52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B53" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="7">
-        <v>22</v>
-      </c>
-      <c r="E53" s="7">
-        <v>1</v>
-      </c>
-      <c r="F53" s="7">
-        <v>22</v>
-      </c>
-      <c r="G53" s="7">
-        <v>1</v>
-      </c>
-      <c r="H53" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B54" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="8"/>
-      <c r="D54" s="7">
-        <v>22</v>
-      </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7">
-        <v>0</v>
-      </c>
-      <c r="G54" s="7">
-        <v>0</v>
-      </c>
-      <c r="H54" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55" s="2"/>
-      <c r="D55" s="7">
-        <v>22</v>
-      </c>
-      <c r="E55" s="7">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7">
-        <v>0</v>
-      </c>
-      <c r="G55" s="7">
-        <v>0</v>
-      </c>
-      <c r="H55" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="7">
-        <v>22</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>0</v>
-      </c>
-      <c r="G56" s="7">
-        <v>0</v>
-      </c>
-      <c r="H56" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D57" s="7">
-        <v>22</v>
-      </c>
-      <c r="E57" s="7">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>0</v>
-      </c>
-      <c r="G57" s="7">
-        <v>0</v>
-      </c>
-      <c r="H57" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" s="7">
-        <v>22</v>
-      </c>
-      <c r="E58" s="7">
-        <v>0</v>
-      </c>
-      <c r="F58" s="7">
-        <v>0</v>
-      </c>
-      <c r="G58" s="7">
-        <v>0</v>
-      </c>
-      <c r="H58" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="7">
-        <v>22</v>
-      </c>
-      <c r="E59" s="7">
-        <v>0</v>
-      </c>
-      <c r="F59" s="7">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7">
-        <v>0</v>
-      </c>
-      <c r="H59" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D60" s="7">
-        <v>0</v>
-      </c>
-      <c r="E60" s="7">
-        <v>0</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0</v>
-      </c>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B61" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="8"/>
-      <c r="D61" s="7">
-        <v>22</v>
-      </c>
-      <c r="E61" s="7">
-        <v>0</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0</v>
-      </c>
-      <c r="G61" s="7">
-        <v>0</v>
-      </c>
-      <c r="H61" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D62" s="7">
-        <v>0</v>
-      </c>
-      <c r="E62" s="7">
-        <v>0</v>
-      </c>
-      <c r="F62" s="7">
-        <v>0</v>
-      </c>
-      <c r="G62" s="7">
-        <v>0</v>
-      </c>
-      <c r="H62" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="17.399999999999999" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D63" s="7">
-        <v>0</v>
-      </c>
-      <c r="E63" s="7">
-        <v>0</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0</v>
-      </c>
-      <c r="G63" s="7">
-        <v>0</v>
-      </c>
-      <c r="H63" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="17.399999999999999" collapsed="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="9"/>
-      <c r="C64" s="8"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="6"/>
-    </row>
-    <row r="65" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B65" s="9"/>
-      <c r="C65" s="8"/>
+      <c r="C65" s="60"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B66" s="9"/>
-      <c r="C66" s="8"/>
+    <row r="66" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B66" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="60" t="s">
+        <v>1</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B67" s="9"/>
-      <c r="C67" s="8"/>
+    <row r="67" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B67" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C67" s="60" t="s">
+        <v>97</v>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B68" s="9"/>
-      <c r="C68" s="8"/>
+    <row r="68" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B68" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="60" t="s">
+        <v>1</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B69" s="9"/>
-      <c r="C69" s="8"/>
+    <row r="69" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B69" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="60" t="s">
+        <v>97</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6"/>
+    </row>
+    <row r="70" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B70" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6"/>
+    </row>
+    <row r="71" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="7">
+        <v>0</v>
+      </c>
+      <c r="E71" s="7">
+        <v>0</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0</v>
+      </c>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
+      <c r="H71" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B72" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="60"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6"/>
+    </row>
+    <row r="73" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B73" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6"/>
+    </row>
+    <row r="74" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="D74" s="7">
+        <v>0</v>
+      </c>
+      <c r="E74" s="7">
+        <v>0</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0</v>
+      </c>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
+      <c r="H74" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="56"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6"/>
+    </row>
+    <row r="76" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C76" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="7">
+        <v>13</v>
+      </c>
+      <c r="E76" s="7">
+        <v>6</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0</v>
+      </c>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
+      <c r="H76" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="56"/>
+      <c r="D77" s="7">
+        <v>13</v>
+      </c>
+      <c r="E77" s="7">
+        <v>6</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0</v>
+      </c>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
+      <c r="H77" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="56"/>
+      <c r="D78" s="7">
+        <v>13</v>
+      </c>
+      <c r="E78" s="7">
+        <v>6</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="6"/>
+    </row>
+    <row r="79" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C79" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="D79" s="7">
+        <v>13</v>
+      </c>
+      <c r="E79" s="7">
+        <v>6</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0</v>
+      </c>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
+      <c r="H79" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C80" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="7">
+        <v>47</v>
+      </c>
+      <c r="E80" s="7">
+        <v>1</v>
+      </c>
+      <c r="F80" s="7">
+        <v>47</v>
+      </c>
+      <c r="G80" s="7">
+        <v>1</v>
+      </c>
+      <c r="H80" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B81" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="60"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="6"/>
+    </row>
+    <row r="82" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="B82" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C82" s="60" t="s">
+        <v>74</v>
+      </c>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="6"/>
+    </row>
+    <row r="83" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B83" s="9"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="6"/>
+    </row>
+    <row r="84" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4089,278 +4243,298 @@
     <mergeCell ref="L2:P2"/>
     <mergeCell ref="R2:U2"/>
   </mergeCells>
-  <conditionalFormatting sqref="I5:BP21 V30:BP30 I69:BP69 I28:BP29 I60:BP60 I35:BP38 I46:BP52">
-    <cfRule type="expression" dxfId="81" priority="73">
+  <conditionalFormatting sqref="V24:BP24 I84:BP84 I22:BP23 I71:BP71 I29:BP45 I5:BP15 I74:BP81">
+    <cfRule type="expression" dxfId="72" priority="98">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="80" priority="75">
+    <cfRule type="expression" dxfId="71" priority="100">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="76">
+    <cfRule type="expression" dxfId="70" priority="101">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="77">
+    <cfRule type="expression" dxfId="69" priority="102">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="77" priority="78">
+    <cfRule type="expression" dxfId="68" priority="103">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="79">
+    <cfRule type="expression" dxfId="67" priority="104">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="81">
+    <cfRule type="expression" dxfId="66" priority="106">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="82">
+    <cfRule type="expression" dxfId="65" priority="107">
       <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B70:BP70">
-    <cfRule type="expression" dxfId="73" priority="74">
-      <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:BP4">
-    <cfRule type="expression" dxfId="72" priority="80">
+    <cfRule type="expression" dxfId="64" priority="105">
       <formula>I$4=period_selected</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39:BP45">
-    <cfRule type="expression" dxfId="71" priority="65">
+  <conditionalFormatting sqref="I25:BP28 I24:S24">
+    <cfRule type="expression" dxfId="63" priority="82">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="66">
+    <cfRule type="expression" dxfId="62" priority="83">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="67">
+    <cfRule type="expression" dxfId="61" priority="84">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="68">
+    <cfRule type="expression" dxfId="60" priority="85">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
+    <cfRule type="expression" dxfId="59" priority="86">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="70">
+    <cfRule type="expression" dxfId="58" priority="87">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="71">
+    <cfRule type="expression" dxfId="57" priority="88">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="72">
+    <cfRule type="expression" dxfId="56" priority="89">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BP34 I30:S30">
-    <cfRule type="expression" dxfId="63" priority="57">
+  <conditionalFormatting sqref="I16:BP21">
+    <cfRule type="expression" dxfId="55" priority="74">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="58">
+    <cfRule type="expression" dxfId="54" priority="75">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="59">
+    <cfRule type="expression" dxfId="53" priority="76">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="60">
+    <cfRule type="expression" dxfId="52" priority="77">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="61">
+    <cfRule type="expression" dxfId="51" priority="78">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="62">
+    <cfRule type="expression" dxfId="50" priority="79">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="63">
+    <cfRule type="expression" dxfId="49" priority="80">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="64">
+    <cfRule type="expression" dxfId="48" priority="81">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I22:BP27">
-    <cfRule type="expression" dxfId="55" priority="49">
+  <conditionalFormatting sqref="I46:BP47 I83:BP83 I65:BP70 I72:BP73 I52:BP59">
+    <cfRule type="expression" dxfId="47" priority="66">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="50">
+    <cfRule type="expression" dxfId="46" priority="67">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="51">
+    <cfRule type="expression" dxfId="45" priority="68">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="52">
+    <cfRule type="expression" dxfId="44" priority="69">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="53">
+    <cfRule type="expression" dxfId="43" priority="70">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="54">
+    <cfRule type="expression" dxfId="42" priority="71">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="55">
+    <cfRule type="expression" dxfId="41" priority="72">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="56">
+    <cfRule type="expression" dxfId="40" priority="73">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:BP54 I68:BP68 I59:BP59 I61:BP61 I64:BP65">
-    <cfRule type="expression" dxfId="47" priority="41">
+  <conditionalFormatting sqref="I82:BP82">
+    <cfRule type="expression" dxfId="39" priority="58">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="42">
+    <cfRule type="expression" dxfId="38" priority="59">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="43">
+    <cfRule type="expression" dxfId="37" priority="60">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="44">
+    <cfRule type="expression" dxfId="36" priority="61">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
+    <cfRule type="expression" dxfId="35" priority="62">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="46">
+    <cfRule type="expression" dxfId="34" priority="63">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="47">
+    <cfRule type="expression" dxfId="33" priority="64">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="48">
+    <cfRule type="expression" dxfId="32" priority="65">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I67:BP67">
-    <cfRule type="expression" dxfId="39" priority="33">
+  <conditionalFormatting sqref="I64:BP64">
+    <cfRule type="expression" dxfId="31" priority="42">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="34">
+    <cfRule type="expression" dxfId="30" priority="43">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="35">
+    <cfRule type="expression" dxfId="29" priority="44">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="36">
+    <cfRule type="expression" dxfId="28" priority="45">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="37">
+    <cfRule type="expression" dxfId="27" priority="46">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="38">
+    <cfRule type="expression" dxfId="26" priority="47">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="39">
+    <cfRule type="expression" dxfId="25" priority="48">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="40">
+    <cfRule type="expression" dxfId="24" priority="49">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I66:BP66">
-    <cfRule type="expression" dxfId="31" priority="25">
+  <conditionalFormatting sqref="I60:BP60 I62:BP63">
+    <cfRule type="expression" dxfId="23" priority="34">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="26">
+    <cfRule type="expression" dxfId="22" priority="35">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="21" priority="36">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="28">
+    <cfRule type="expression" dxfId="20" priority="37">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="19" priority="38">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="18" priority="39">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="31">
+    <cfRule type="expression" dxfId="17" priority="40">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="32">
+    <cfRule type="expression" dxfId="16" priority="41">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I58:BP58">
-    <cfRule type="expression" dxfId="23" priority="17">
+  <conditionalFormatting sqref="H62:H1048576 H5:H47 H52:H60">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H47 H52:H60 H62:H81">
+    <cfRule type="cellIs" priority="21" operator="equal">
+      <formula>ISBLANK</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I48:BP51">
+    <cfRule type="expression" dxfId="15" priority="13">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="18">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="19">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="8" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:BP57">
-    <cfRule type="expression" dxfId="15" priority="9">
+  <conditionalFormatting sqref="H48:H51">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48:H51">
+    <cfRule type="cellIs" priority="11" operator="equal">
+      <formula>ISBLANK</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:BP61">
+    <cfRule type="expression" dxfId="7" priority="3">
       <formula>PercentComplete</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="6" priority="4">
       <formula>PercentCompleteBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>Actual</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="4" priority="6">
       <formula>ActualBeyond</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="13">
+    <cfRule type="expression" dxfId="3" priority="7">
       <formula>Plan</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="2" priority="8">
       <formula>I$4=period_selected</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>MOD(COLUMN(),2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="16">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BP63">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>PercentComplete</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2">
-      <formula>PercentCompleteBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>Actual</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>ActualBeyond</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>Plan</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6">
-      <formula>I$4=period_selected</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7">
-      <formula>MOD(COLUMN(),2)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="8">
-      <formula>MOD(COLUMN(),2)=0</formula>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFC00000"/>
+        <color rgb="FFFFEB84"/>
+        <color theme="9"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H61">
+    <cfRule type="cellIs" priority="1" operator="equal">
+      <formula>ISBLANK</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="17">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B22:C22 B33:B34 B31 B58">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="B16:C16 B27:B28 B25 B64">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4384,18 +4558,22 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Project planner uses periods for intervals. Start=1 is period 1 and duration=5 means project spans 5 periods starting from start period. Enter data starting in B5 to update the chart" sqref="A1"/>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="B51" r:id="rId1"/>
-    <hyperlink ref="B43" r:id="rId2"/>
-    <hyperlink ref="B22" r:id="rId3"/>
-    <hyperlink ref="B23" r:id="rId4"/>
-    <hyperlink ref="B34" r:id="rId5"/>
+    <hyperlink ref="B44" r:id="rId1"/>
+    <hyperlink ref="B36" r:id="rId2"/>
+    <hyperlink ref="B16" r:id="rId3"/>
+    <hyperlink ref="B17" r:id="rId4"/>
+    <hyperlink ref="B28" r:id="rId5"/>
     <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B32" r:id="rId7"/>
-    <hyperlink ref="B38" r:id="rId8"/>
+    <hyperlink ref="B26" r:id="rId7"/>
+    <hyperlink ref="B32" r:id="rId8"/>
+    <hyperlink ref="B38" r:id="rId9"/>
+    <hyperlink ref="B10" r:id="rId10"/>
+    <hyperlink ref="B34" r:id="rId11"/>
+    <hyperlink ref="B35" r:id="rId12"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId9"/>
+  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId13"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/team_folder/newFolder/Project Management/Project Management.xlsx
+++ b/team_folder/newFolder/Project Management/Project Management.xlsx
@@ -2,17 +2,18 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\soet-students\courses\CPET-563\groups\newFolder\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\groups\newFolder\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11490" windowHeight="6990" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11496" windowHeight="6996" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Actual">(PeriodInActual*('Project Planner'!$F1&gt;0))*PeriodInPlan</definedName>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Project Planner'!$3:$4</definedName>
     <definedName name="TitleRegion..BO60">'Project Planner'!$B$3:$B$4</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="111">
   <si>
     <t>Andrei</t>
   </si>
@@ -90,9 +91,6 @@
   </si>
   <si>
     <t>Derive Requirements for VHDL</t>
-  </si>
-  <si>
-    <t>B &amp; P</t>
   </si>
   <si>
     <t>Design VHDL\AXI block for PWM</t>
@@ -308,9 +306,6 @@
     <t>Derive Requirements for Cameras</t>
   </si>
   <si>
-    <t>New folder Project Planner</t>
-  </si>
-  <si>
     <t>Plan calibration implementation</t>
   </si>
   <si>
@@ -377,12 +372,6 @@
     <t>Create movement functions</t>
   </si>
   <si>
-    <t>create camera feed</t>
-  </si>
-  <si>
-    <t>create unknown map</t>
-  </si>
-  <si>
     <t>Unit Test for writing to memory</t>
   </si>
   <si>
@@ -407,14 +396,59 @@
     <t>Bach &amp; Cody</t>
   </si>
   <si>
-    <t>Bach &amp; B &amp; P</t>
+    <t>P &amp; Br &amp; C</t>
+  </si>
+  <si>
+    <t>Bach &amp; Br &amp; P</t>
+  </si>
+  <si>
+    <t>Br &amp; P</t>
+  </si>
+  <si>
+    <t>Implement Wireless Speaker</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>New Folder Project Planner</t>
+  </si>
+  <si>
+    <t>Create camera feed</t>
+  </si>
+  <si>
+    <t>Create unknown map</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>TASK</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Estimated Time</t>
+  </si>
+  <si>
+    <t>Estimated Cost</t>
+  </si>
+  <si>
+    <t>Creating Hardware APIs</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -554,37 +588,70 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1" tint="0.24994659260841701"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri Light"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1" tint="0.24994659260841701"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1" tint="0.24994659260841701"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -632,8 +699,31 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -727,8 +817,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -789,8 +912,10 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2">
       <alignment horizontal="center" vertical="center"/>
@@ -855,9 +980,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="13" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="14" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="15" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -882,9 +1004,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="12" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="2" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="5" xfId="23" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="22" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="11" borderId="0" xfId="22" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -939,49 +1141,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="24">
     <cellStyle name="% complete" xfId="14"/>
     <cellStyle name="% complete (beyond plan) legend" xfId="12"/>
+    <cellStyle name="Accent4" xfId="23" builtinId="41"/>
     <cellStyle name="Activity" xfId="4"/>
     <cellStyle name="Actual (beyond plan) legend" xfId="13"/>
     <cellStyle name="Actual legend" xfId="15"/>
+    <cellStyle name="Currency" xfId="22" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Explanatory Text 2" xfId="19"/>
     <cellStyle name="Heading 1 2" xfId="20"/>
@@ -2388,122 +2556,122 @@
   </sheetPr>
   <dimension ref="B1:BP84"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.140625" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="3.109375" defaultRowHeight="30" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.140625" style="2" customWidth="1"/>
-    <col min="10" max="28" width="3.140625" style="2"/>
-    <col min="29" max="16384" width="3.140625" style="1"/>
+    <col min="7" max="7" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.109375" style="2" customWidth="1"/>
+    <col min="10" max="28" width="3.109375" style="2"/>
+    <col min="29" max="16384" width="3.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:68" ht="54.75" thickBot="1" x14ac:dyDescent="0.85">
-      <c r="B1" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="40">
+    <row r="1" spans="2:68" ht="54.6" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="B1" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+    </row>
+    <row r="2" spans="2:68" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="69">
         <f ca="1">NOW()</f>
-        <v>43179.77702627315</v>
-      </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="25">
+        <v>43181.642791319442</v>
+      </c>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="24">
         <f ca="1">DAY(NOW())</f>
-        <v>20</v>
-      </c>
-      <c r="K2" s="24"/>
-      <c r="L2" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="23"/>
+      <c r="L2" s="75" t="s">
         <v>59</v>
       </c>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="32" t="s">
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="34"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="62"/>
+      <c r="Y2" s="62"/>
+      <c r="Z2" s="63"/>
       <c r="AA2" s="21"/>
-      <c r="AB2" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC2" s="36"/>
-      <c r="AD2" s="36"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="36"/>
-      <c r="AG2" s="36"/>
-      <c r="AH2" s="37"/>
+      <c r="AB2" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
       <c r="AI2" s="20"/>
-      <c r="AJ2" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="33"/>
-      <c r="AL2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AP2" s="33"/>
-      <c r="AQ2" s="33"/>
-    </row>
-    <row r="3" spans="2:68" s="15" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
+      <c r="AJ2" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="AK2" s="62"/>
+      <c r="AL2" s="62"/>
+      <c r="AM2" s="62"/>
+      <c r="AN2" s="62"/>
+      <c r="AO2" s="62"/>
+      <c r="AP2" s="62"/>
+      <c r="AQ2" s="62"/>
+    </row>
+    <row r="3" spans="2:68" s="15" customFormat="1" ht="39.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="C3" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="D3" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="E3" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="F3" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="45" t="s">
+      <c r="G3" s="72" t="s">
         <v>49</v>
       </c>
+      <c r="H3" s="74" t="s">
+        <v>48</v>
+      </c>
       <c r="I3" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J3" s="18"/>
       <c r="K3" s="17"/>
@@ -2525,17 +2693,17 @@
       <c r="AA3" s="17"/>
       <c r="AB3" s="17"/>
       <c r="AN3" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:68" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="71"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
       <c r="I4" s="14">
         <v>1</v>
       </c>
@@ -2717,22 +2885,22 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:68" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:68" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="58"/>
+        <v>32</v>
+      </c>
+      <c r="C5" s="45"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="59" t="s">
+    <row r="6" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="7">
@@ -2751,11 +2919,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="7">
@@ -2774,11 +2942,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D8" s="7">
@@ -2788,20 +2956,20 @@
         <v>8</v>
       </c>
       <c r="F8" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G8" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H8" s="6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D9" s="7">
@@ -2820,12 +2988,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>46</v>
+        <v>64</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>45</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2843,11 +3011,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="56"/>
+        <v>75</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>16</v>
+      </c>
       <c r="D11" s="7">
         <v>13</v>
       </c>
@@ -2864,12 +3034,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B12" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="56" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="D12" s="7">
         <v>13</v>
@@ -2887,11 +3057,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>1</v>
       </c>
       <c r="D13" s="7">
@@ -2910,12 +3080,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B14" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C14" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="D14" s="7">
         <v>13</v>
@@ -2933,22 +3103,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:68" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:68" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B15" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="2:68" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:68" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="7">
@@ -2967,12 +3137,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="56" t="s">
-        <v>41</v>
+      <c r="C17" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
@@ -2990,12 +3160,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="56" t="s">
-        <v>41</v>
+        <v>18</v>
+      </c>
+      <c r="C18" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
@@ -3013,12 +3183,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="56" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="C19" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
@@ -3036,12 +3206,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="56" t="s">
-        <v>41</v>
+        <v>67</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
@@ -3059,12 +3229,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="56" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
@@ -3073,32 +3243,32 @@
         <v>8</v>
       </c>
       <c r="F21" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7">
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="58"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" s="56" t="s">
-        <v>43</v>
+    <row r="23" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="47" t="s">
+        <v>42</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
@@ -3116,12 +3286,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="56" t="s">
-        <v>42</v>
+      <c r="C24" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
@@ -3136,15 +3306,15 @@
         <v>7</v>
       </c>
       <c r="H24" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="56" t="s">
-        <v>42</v>
+        <v>24</v>
+      </c>
+      <c r="C25" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
@@ -3162,12 +3332,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
@@ -3185,12 +3355,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="56" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
@@ -3199,21 +3369,21 @@
         <v>6</v>
       </c>
       <c r="F27" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G27" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B28" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>42</v>
+        <v>66</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
@@ -3231,23 +3401,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B29" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="58"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="56" t="s">
-        <v>41</v>
+        <v>63</v>
+      </c>
+      <c r="C30" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
@@ -3256,21 +3426,21 @@
         <v>8</v>
       </c>
       <c r="F30" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G30" s="7">
         <v>0</v>
       </c>
       <c r="H30" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="56" t="s">
-        <v>41</v>
+        <v>29</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="7">
         <v>1</v>
@@ -3279,21 +3449,21 @@
         <v>8</v>
       </c>
       <c r="F31" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G31" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B32" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>41</v>
+        <v>61</v>
+      </c>
+      <c r="C32" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="7">
         <v>1</v>
@@ -3311,22 +3481,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="58"/>
+        <v>31</v>
+      </c>
+      <c r="C33" s="45"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B34" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C34" s="56" t="s">
+      <c r="C34" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D34" s="7">
@@ -3336,7 +3506,7 @@
         <v>8</v>
       </c>
       <c r="F34" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G34" s="7">
         <v>4</v>
@@ -3345,11 +3515,11 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="35" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B35" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D35" s="7">
@@ -3368,11 +3538,11 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="36" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B36" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="47" t="s">
         <v>6</v>
       </c>
       <c r="D36" s="7">
@@ -3391,12 +3561,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="56" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="C37" s="47" t="s">
+        <v>69</v>
       </c>
       <c r="D37" s="7">
         <v>8</v>
@@ -3407,17 +3577,19 @@
       <c r="F37" s="7">
         <v>14</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>5</v>
+      </c>
       <c r="H37" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B38" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C38" s="56" t="s">
-        <v>42</v>
+        <v>28</v>
+      </c>
+      <c r="C38" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D38" s="7">
         <v>1</v>
@@ -3435,22 +3607,22 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="39" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B39" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="58"/>
+      <c r="C39" s="45"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C40" s="56" t="s">
+      <c r="C40" s="47" t="s">
         <v>0</v>
       </c>
       <c r="D40" s="7">
@@ -3469,11 +3641,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="47" t="s">
         <v>0</v>
       </c>
       <c r="D41" s="7">
@@ -3486,17 +3658,17 @@
         <v>14</v>
       </c>
       <c r="G41" s="7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H41" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="47" t="s">
         <v>0</v>
       </c>
       <c r="D42" s="7">
@@ -3512,14 +3684,14 @@
         <v>20</v>
       </c>
       <c r="H42" s="6">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="47" t="s">
         <v>0</v>
       </c>
       <c r="D43" s="7">
@@ -3535,15 +3707,15 @@
         <v>10</v>
       </c>
       <c r="H43" s="6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C44" s="56" t="s">
-        <v>38</v>
+      <c r="C44" s="47" t="s">
+        <v>37</v>
       </c>
       <c r="D44" s="7">
         <v>4</v>
@@ -3555,17 +3727,17 @@
         <v>6</v>
       </c>
       <c r="G44" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H44" s="6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C45" s="56" t="s">
+      <c r="C45" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D45" s="7">
@@ -3581,46 +3753,70 @@
         <v>2</v>
       </c>
       <c r="H45" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C46" s="60" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" s="43" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B46" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="40">
         <v>22</v>
       </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7">
+      <c r="E46" s="40">
+        <v>1</v>
+      </c>
+      <c r="F46" s="40">
         <v>22</v>
       </c>
-      <c r="G46" s="7">
-        <v>1</v>
-      </c>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G46" s="40">
+        <v>1</v>
+      </c>
+      <c r="H46" s="41">
+        <v>0.75</v>
+      </c>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+      <c r="Y46" s="42"/>
+      <c r="Z46" s="42"/>
+      <c r="AA46" s="42"/>
+      <c r="AB46" s="42"/>
+    </row>
+    <row r="47" spans="2:28" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="60"/>
+        <v>32</v>
+      </c>
+      <c r="C47" s="49"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:28" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="56"/>
+        <v>79</v>
+      </c>
+      <c r="C48" s="47" t="s">
+        <v>96</v>
+      </c>
       <c r="D48" s="7">
         <v>23</v>
       </c>
@@ -3637,12 +3833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B49" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="56" t="s">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="C49" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="D49" s="7">
         <v>23</v>
@@ -3660,11 +3856,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B50" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="47" t="s">
         <v>1</v>
       </c>
       <c r="D50" s="7">
@@ -3683,12 +3879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B51" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>78</v>
       </c>
       <c r="D51" s="7">
         <v>23</v>
@@ -3706,120 +3902,190 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B52" s="51" t="s">
+    <row r="52" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B52" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="7">
+        <v>23</v>
+      </c>
+      <c r="E52" s="7">
+        <v>5</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B53" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" s="7">
+        <v>23</v>
+      </c>
+      <c r="E53" s="7">
+        <v>5</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0</v>
+      </c>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B54" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="60" t="s">
+      <c r="C54" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B53" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="60" t="s">
+      <c r="D54" s="7">
+        <v>23</v>
+      </c>
+      <c r="E54" s="7">
+        <v>7</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B55" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C55" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="6"/>
-    </row>
-    <row r="54" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B54" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" s="60" t="s">
+      <c r="D55" s="7">
+        <v>23</v>
+      </c>
+      <c r="E55" s="7">
+        <v>7</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0</v>
+      </c>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B56" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="6"/>
-    </row>
-    <row r="55" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B55" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="6"/>
-    </row>
-    <row r="56" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B56" s="50" t="s">
+      <c r="D56" s="7">
+        <v>31</v>
+      </c>
+      <c r="E56" s="7">
+        <v>7</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0</v>
+      </c>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
+      <c r="H56" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B57" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C57" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="C56" s="60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="6"/>
-    </row>
-    <row r="57" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B57" s="50" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="6"/>
-    </row>
-    <row r="58" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B58" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="60" t="s">
-        <v>100</v>
-      </c>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="6"/>
-    </row>
-    <row r="59" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="D57" s="7">
+        <v>31</v>
+      </c>
+      <c r="E57" s="7">
+        <v>7</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0</v>
+      </c>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
+      <c r="H57" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B58" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C58" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="7">
+        <v>31</v>
+      </c>
+      <c r="E58" s="7">
+        <v>7</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0</v>
+      </c>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
+      <c r="H58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B59" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="60"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="C60" s="57" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="C60" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="D60" s="7">
         <v>25</v>
       </c>
       <c r="E60" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F60" s="7">
         <v>0</v>
@@ -3831,18 +4097,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C61" s="57" t="s">
-        <v>18</v>
+        <v>86</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="D61" s="7">
         <v>25</v>
       </c>
       <c r="E61" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F61" s="7">
         <v>0</v>
@@ -3854,18 +4120,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="57" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="D62" s="7">
         <v>25</v>
       </c>
       <c r="E62" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F62" s="7">
         <v>0</v>
@@ -3877,18 +4143,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="57" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="D63" s="7">
         <v>25</v>
       </c>
       <c r="E63" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F63" s="7">
         <v>0</v>
@@ -3900,18 +4166,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B64" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="C64" s="50" t="s">
+        <v>98</v>
       </c>
       <c r="D64" s="7">
         <v>25</v>
       </c>
       <c r="E64" s="7">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F64" s="7">
         <v>0</v>
@@ -3923,94 +4189,144 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B65" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C65" s="60"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B66" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="6"/>
-    </row>
-    <row r="67" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B67" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="C67" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="6"/>
-    </row>
-    <row r="68" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B68" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
-      <c r="G68" s="7"/>
-      <c r="H68" s="6"/>
-    </row>
-    <row r="69" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B69" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="7"/>
-      <c r="H69" s="6"/>
-    </row>
-    <row r="70" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B70" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C70" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="7"/>
-      <c r="H70" s="6"/>
-    </row>
-    <row r="71" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C71" s="56" t="s">
-        <v>42</v>
+    <row r="66" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B66" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" s="7">
+        <v>23</v>
+      </c>
+      <c r="E66" s="7">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0</v>
+      </c>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
+      <c r="H66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B67" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D67" s="7">
+        <v>23</v>
+      </c>
+      <c r="E67" s="7">
+        <v>10</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0</v>
+      </c>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
+      <c r="H67" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B68" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
+        <v>32</v>
+      </c>
+      <c r="E68" s="7">
+        <v>15</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B69" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D69" s="7">
+        <v>32</v>
+      </c>
+      <c r="E69" s="7">
+        <v>5</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B70" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="D70" s="7">
+        <v>32</v>
+      </c>
+      <c r="E70" s="7">
+        <v>7</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0</v>
+      </c>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
+      <c r="H70" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="C71" s="47" t="s">
+        <v>41</v>
       </c>
       <c r="D71" s="7">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E71" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F71" s="7">
         <v>0</v>
@@ -4022,42 +4338,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B72" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="60"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B73" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C73" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="6"/>
-    </row>
-    <row r="74" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B73" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="7">
+        <v>29</v>
+      </c>
+      <c r="E73" s="7">
+        <v>3</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0</v>
+      </c>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
+      <c r="H73" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C74" s="56" t="s">
-        <v>41</v>
+        <v>30</v>
+      </c>
+      <c r="C74" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="D74" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E74" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F74" s="7">
         <v>0</v>
@@ -4069,26 +4395,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:8" ht="18.75" outlineLevel="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="55" t="s">
+    <row r="75" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C75" s="56"/>
+      <c r="C75" s="47"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" s="56" t="s">
+        <v>92</v>
+      </c>
+      <c r="C76" s="47" t="s">
         <v>16</v>
       </c>
       <c r="D76" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E76" s="7">
         <v>6</v>
@@ -4103,13 +4429,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B77" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C77" s="56"/>
+        <v>44</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>104</v>
+      </c>
       <c r="D77" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E77" s="7">
         <v>6</v>
@@ -4124,30 +4452,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B78" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="56"/>
+      <c r="C78" s="47" t="s">
+        <v>104</v>
+      </c>
       <c r="D78" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E78" s="7">
         <v>6</v>
       </c>
-      <c r="F78" s="7"/>
-      <c r="G78" s="7"/>
+      <c r="F78" s="7">
+        <v>0</v>
+      </c>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="2:8" ht="17.25" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:8" ht="17.399999999999999" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="B79" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C79" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="47" t="s">
         <v>0</v>
       </c>
       <c r="D79" s="7">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="E79" s="7">
         <v>6</v>
@@ -4162,11 +4496,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B80" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C80" s="49" t="s">
         <v>16</v>
       </c>
       <c r="D80" s="7">
@@ -4185,40 +4519,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B81" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C81" s="60"/>
+        <v>80</v>
+      </c>
+      <c r="C81" s="49"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="2:8" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B82" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="C82" s="60" t="s">
+    <row r="82" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B82" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
-      <c r="G82" s="7"/>
-      <c r="H82" s="6"/>
-    </row>
-    <row r="83" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B83" s="9"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
-      <c r="G83" s="7"/>
-      <c r="H83" s="6"/>
-    </row>
-    <row r="84" spans="2:8" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C82" s="49" t="s">
+        <v>72</v>
+      </c>
+      <c r="D82" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E82" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0</v>
+      </c>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
+      <c r="H82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B83" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D83" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="E83" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
       <c r="D84" s="7"/>
@@ -4430,7 +4788,10 @@
       <formula>MOD(COLUMN(),2)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H1048576 H5:H47 H52:H60">
+  <conditionalFormatting sqref="H5:H100">
+    <cfRule type="cellIs" priority="21" operator="equal">
+      <formula>ISBLANK</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -4442,11 +4803,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:H47 H52:H60 H62:H81">
-    <cfRule type="cellIs" priority="21" operator="equal">
-      <formula>ISBLANK</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I48:BP51">
     <cfRule type="expression" dxfId="15" priority="13">
       <formula>PercentComplete</formula>
@@ -4471,23 +4827,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="8" priority="20">
       <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H51">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFC00000"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48:H51">
-    <cfRule type="cellIs" priority="11" operator="equal">
-      <formula>ISBLANK</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:BP61">
@@ -4514,23 +4853,6 @@
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="10">
       <formula>MOD(COLUMN(),2)=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFC00000"/>
-        <color rgb="FFFFEB84"/>
-        <color theme="9"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61">
-    <cfRule type="cellIs" priority="1" operator="equal">
-      <formula>ISBLANK</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="17">
@@ -4573,9 +4895,534 @@
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="51" fitToHeight="0" orientation="landscape" r:id="rId13"/>
+  <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId13"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="D2" s="59"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D3" s="59">
+        <f>C3*100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="59">
+        <f t="shared" ref="D4:D35" si="0">C4*100</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="59">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="59">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="59">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" s="59">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" s="59">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="D14" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17">
+        <v>1.5</v>
+      </c>
+      <c r="D17" s="59">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" s="59">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="49"/>
+      <c r="D20" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="59">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="59">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>1.5</v>
+      </c>
+      <c r="D25" s="59">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" s="59">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A27" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="49"/>
+      <c r="D27" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="59">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="59">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" s="59">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="A31" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="47"/>
+      <c r="D31" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="59">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34" s="59">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1.5</v>
+      </c>
+      <c r="D35" s="59">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="56"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="54">
+        <f ca="1">SUM(C2:C38)</f>
+        <v>50</v>
+      </c>
+      <c r="D36" s="60">
+        <f ca="1">SUM(D2:D38)</f>
+        <v>5000</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="A19">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>